--- a/datamining/final_data/tfidf2021_nltk.xlsx
+++ b/datamining/final_data/tfidf2021_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NO6"/>
+  <dimension ref="A1:MS6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,1880 +447,1770 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>academic</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>accelerate</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>acceleration</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>achievement</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>academic</t>
+          <t>adjusting</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>accelerate</t>
+          <t>adjustment</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>accelerated</t>
+          <t>age</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>acceleration</t>
+          <t>based</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>achievement</t>
+          <t>challenges</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>adjusting</t>
+          <t>characteristics</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>adjustment</t>
+          <t>cheerfulness</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>comparison</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>based</t>
+          <t>conclude</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>challenges</t>
+          <t>critically</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>characteristics</t>
+          <t>differ</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>cheerfulness</t>
+          <t>differences</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>comparison</t>
+          <t>domains</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>conclude</t>
+          <t>education</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>critically</t>
+          <t>environment</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>differ</t>
+          <t>evaluates</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>differences</t>
+          <t>experienced</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>domains</t>
+          <t>experiences</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>facilitated</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>environment</t>
+          <t>factors</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>evaluates</t>
+          <t>family</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>experienced</t>
+          <t>found</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>experiences</t>
+          <t>furthermore</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>facilitated</t>
+          <t>future</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>factors</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>gifted</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>found</t>
+          <t>giftedness</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>furthermore</t>
+          <t>grade-based</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>future</t>
+          <t>groups</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>high</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>gifted</t>
+          <t>include</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>giftedness</t>
+          <t>incomplete</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>grade-based</t>
+          <t>individually</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>groups</t>
+          <t>may</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>meet</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>include</t>
+          <t>much</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>incomplete</t>
+          <t>nonaccelerated</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>individually</t>
+          <t>nongifted</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>peers</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>meet</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>much</t>
+          <t>previous</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>nonaccelerated</t>
+          <t>primary</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>nongifted</t>
+          <t>prior</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>peers</t>
+          <t>reporting</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>research</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>previous</t>
+          <t>resilience</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>primary</t>
+          <t>review</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>prior</t>
+          <t>scarce</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>reporting</t>
+          <t>secondary</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>research</t>
+          <t>self-concept</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>resilience</t>
+          <t>self-efficacy</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>social–emotional</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>scarce</t>
+          <t>students</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>secondary</t>
+          <t>studies</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>self-concept</t>
+          <t>supportive</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>self-efficacy</t>
+          <t>systematic</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>social–emotional</t>
+          <t>university</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>students</t>
+          <t>well-being</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>studies</t>
+          <t>years</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>supportive</t>
+          <t>younger</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>systematic</t>
+          <t>0.86/0.81</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>this</t>
+          <t>431</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>university</t>
+          <t>432</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>well-being</t>
+          <t>actively</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>years</t>
+          <t>also</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>younger</t>
+          <t>although</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>0.86/0.81</t>
+          <t>among</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>articles</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>attitudes</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>aware</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>actively</t>
+          <t>biased</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>also</t>
+          <t>caused</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>although</t>
+          <t>compared</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>among</t>
+          <t>conducted</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>articles</t>
+          <t>contribute</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>attitudes</t>
+          <t>control</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>aware</t>
+          <t>controlled</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>biased</t>
+          <t>counteract</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>caused</t>
+          <t>debate</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>compared</t>
+          <t>debunked</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>conducted</t>
+          <t>design</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>contribute</t>
+          <t>destigmatize</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>dominant</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>controlled</t>
+          <t>effects</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>counteract</t>
+          <t>empirical</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>debate</t>
+          <t>evidence-based</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>debunked</t>
+          <t>experimental</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>design</t>
+          <t>experiments</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>destigmatize</t>
+          <t>extent</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>do</t>
+          <t>group</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>dominant</t>
+          <t>help</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>effects</t>
+          <t>however</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>empirical</t>
+          <t>indicate</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>evidence-based</t>
+          <t>individuals</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>experimental</t>
+          <t>influence</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>experiments</t>
+          <t>intellectual</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>extent</t>
+          <t>intellectually</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>from</t>
+          <t>investigated</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>join</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>help</t>
+          <t>mass</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>however</t>
+          <t>media</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>might</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>indicate</t>
+          <t>moderated</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>individuals</t>
+          <t>moderators</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>influence</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>intellectual</t>
+          <t>newspaper</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>intellectually</t>
+          <t>nonstereotypic</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>investigated</t>
+          <t>persons</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>join</t>
+          <t>potential</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>mass</t>
+          <t>present</t>
         </is>
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>prevail</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
-          <t>might</t>
+          <t>public</t>
         </is>
       </c>
       <c r="DP1" s="1" t="inlineStr">
         <is>
-          <t>moderated</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="DQ1" s="1" t="inlineStr">
         <is>
-          <t>moderators</t>
+          <t>quite</t>
         </is>
       </c>
       <c r="DR1" s="1" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>randomized</t>
         </is>
       </c>
       <c r="DS1" s="1" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>recipients</t>
         </is>
       </c>
       <c r="DT1" s="1" t="inlineStr">
         <is>
-          <t>newspaper</t>
+          <t>relationships</t>
         </is>
       </c>
       <c r="DU1" s="1" t="inlineStr">
         <is>
-          <t>nonstereotypic</t>
+          <t>reports</t>
         </is>
       </c>
       <c r="DV1" s="1" t="inlineStr">
         <is>
-          <t>persons</t>
+          <t>representation</t>
         </is>
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>potential</t>
+          <t>representations</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>present</t>
+          <t>researchers</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
-          <t>prevail</t>
+          <t>respectively</t>
         </is>
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>public</t>
+          <t>results</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>robust</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>quite</t>
+          <t>shape</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>randomized</t>
+          <t>society</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>recipients</t>
+          <t>stereotypes</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>relationships</t>
+          <t>stereotypic</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>reports</t>
+          <t>stigmatization</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>representation</t>
+          <t>study</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>representations</t>
+          <t>teachers</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>researchers</t>
+          <t>toward</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>respectively</t>
+          <t>two</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>results</t>
+          <t>whereas</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>robust</t>
+          <t>whether</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>shape</t>
+          <t>−0.54/−0.58</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>society</t>
+          <t>academically</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>stereotypes</t>
+          <t>achieve</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>stereotypic</t>
+          <t>across</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>stigmatization</t>
+          <t>additionally</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>advanced</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>teachers</t>
+          <t>analysis</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>appreciated</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>they</t>
+          <t>attend</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>toward</t>
+          <t>attending</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>two</t>
+          <t>career</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>whereas</t>
+          <t>choice</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>whether</t>
+          <t>choosing</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>’</t>
+          <t>chosen</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>−0.54/−0.58</t>
+          <t>college</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>academically</t>
+          <t>college-going</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>achieve</t>
+          <t>committed</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>across</t>
+          <t>comparisons</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>additionally</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>advanced</t>
+          <t>consider</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>analysis</t>
+          <t>considerations</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>appreciated</t>
+          <t>cost</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>attend</t>
+          <t>decision-making</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>attending</t>
+          <t>describes</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>career</t>
+          <t>descriptive</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>choice</t>
+          <t>discussed</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>choosing</t>
+          <t>domain</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>chosen</t>
+          <t>early</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>college</t>
+          <t>evaluating</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>college-going</t>
+          <t>exploration</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>committed</t>
+          <t>fit</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>comparisons</t>
+          <t>flexible</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>guide</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>consider</t>
+          <t>highly</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>considerations</t>
+          <t>identified</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>cost</t>
+          <t>identity</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>decision-making</t>
+          <t>immersion</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>describes</t>
+          <t>influenced</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>descriptive</t>
+          <t>institution</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
         <is>
-          <t>discussed</t>
+          <t>institution-level</t>
         </is>
       </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
-          <t>domain</t>
+          <t>interactions</t>
         </is>
       </c>
       <c r="GB1" s="1" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>interviews</t>
         </is>
       </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
-          <t>evaluating</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="GD1" s="1" t="inlineStr">
         <is>
-          <t>exploration</t>
+          <t>must</t>
         </is>
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
-          <t>fit</t>
+          <t>opportunities</t>
         </is>
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>flexible</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>guide</t>
+          <t>options</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>highly</t>
+          <t>order</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>identified</t>
+          <t>participants</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>identity</t>
+          <t>participated</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>immersion</t>
+          <t>person-environment</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>influenced</t>
+          <t>pressure</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>institution</t>
+          <t>prestige</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>institution-level</t>
+          <t>process</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
-          <t>interactions</t>
+          <t>qualitative</t>
         </is>
       </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>interviews</t>
+          <t>questioned</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>rank-ordered</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>must</t>
+          <t>relationship</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>opportunities</t>
+          <t>school</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>selective</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>options</t>
+          <t>semistructured</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>order</t>
+          <t>seniors</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
-          <t>participants</t>
+          <t>six</t>
         </is>
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>participated</t>
+          <t>social</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>person-environment</t>
+          <t>sought</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>pressure</t>
+          <t>student-level</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>prestige</t>
+          <t>talented</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="HC1" s="1" t="inlineStr">
         <is>
-          <t>qualitative</t>
+          <t>thematic</t>
         </is>
       </c>
       <c r="HD1" s="1" t="inlineStr">
         <is>
-          <t>questioned</t>
+          <t>themes</t>
         </is>
       </c>
       <c r="HE1" s="1" t="inlineStr">
         <is>
-          <t>rank-ordered</t>
+          <t>used</t>
         </is>
       </c>
       <c r="HF1" s="1" t="inlineStr">
         <is>
-          <t>relationship</t>
+          <t>variables</t>
         </is>
       </c>
       <c r="HG1" s="1" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>50</t>
         </is>
       </c>
       <c r="HH1" s="1" t="inlineStr">
         <is>
-          <t>selective</t>
+          <t>abilities</t>
         </is>
       </c>
       <c r="HI1" s="1" t="inlineStr">
         <is>
-          <t>semistructured</t>
+          <t>ability</t>
         </is>
       </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>seniors</t>
+          <t>above-level</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
-          <t>six</t>
+          <t>accomplishments</t>
         </is>
       </c>
       <c r="HL1" s="1" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>add</t>
         </is>
       </c>
       <c r="HM1" s="1" t="inlineStr">
         <is>
-          <t>sought</t>
+          <t>addition</t>
         </is>
       </c>
       <c r="HN1" s="1" t="inlineStr">
         <is>
-          <t>student-level</t>
+          <t>assessment</t>
         </is>
       </c>
       <c r="HO1" s="1" t="inlineStr">
         <is>
-          <t>talented</t>
+          <t>assessments</t>
         </is>
       </c>
       <c r="HP1" s="1" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>back</t>
         </is>
       </c>
       <c r="HQ1" s="1" t="inlineStr">
         <is>
-          <t>thematic</t>
+          <t>basic</t>
         </is>
       </c>
       <c r="HR1" s="1" t="inlineStr">
         <is>
-          <t>themes</t>
+          <t>behalf</t>
         </is>
       </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
-          <t>used</t>
+          <t>beyond</t>
         </is>
       </c>
       <c r="HT1" s="1" t="inlineStr">
         <is>
-          <t>variables</t>
+          <t>careers</t>
         </is>
       </c>
       <c r="HU1" s="1" t="inlineStr">
         <is>
-          <t>when</t>
+          <t>categorically</t>
         </is>
       </c>
       <c r="HV1" s="1" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>conative</t>
         </is>
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
-          <t>abilities</t>
+          <t>concept</t>
         </is>
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
-          <t>ability</t>
+          <t>consequential</t>
         </is>
       </c>
       <c r="HY1" s="1" t="inlineStr">
         <is>
-          <t>above-level</t>
+          <t>contributions</t>
         </is>
       </c>
       <c r="HZ1" s="1" t="inlineStr">
         <is>
-          <t>accomplishments</t>
+          <t>cover</t>
         </is>
       </c>
       <c r="IA1" s="1" t="inlineStr">
         <is>
-          <t>add</t>
+          <t>creative</t>
         </is>
       </c>
       <c r="IB1" s="1" t="inlineStr">
         <is>
-          <t>addition</t>
+          <t>creativity</t>
         </is>
       </c>
       <c r="IC1" s="1" t="inlineStr">
         <is>
-          <t>assessment</t>
+          <t>development</t>
         </is>
       </c>
       <c r="ID1" s="1" t="inlineStr">
         <is>
-          <t>assessments</t>
+          <t>diversity</t>
         </is>
       </c>
       <c r="IE1" s="1" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>documented</t>
         </is>
       </c>
       <c r="IF1" s="1" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>dosage</t>
         </is>
       </c>
       <c r="IG1" s="1" t="inlineStr">
         <is>
-          <t>behalf</t>
+          <t>educational</t>
         </is>
       </c>
       <c r="IH1" s="1" t="inlineStr">
         <is>
-          <t>beyond</t>
+          <t>educational/occupational</t>
         </is>
       </c>
       <c r="II1" s="1" t="inlineStr">
         <is>
-          <t>careers</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="IJ1" s="1" t="inlineStr">
         <is>
-          <t>categorically</t>
+          <t>eight</t>
         </is>
       </c>
       <c r="IK1" s="1" t="inlineStr">
         <is>
-          <t>conative</t>
+          <t>emerged</t>
         </is>
       </c>
       <c r="IL1" s="1" t="inlineStr">
         <is>
-          <t>concept</t>
+          <t>empirically</t>
         </is>
       </c>
       <c r="IM1" s="1" t="inlineStr">
         <is>
-          <t>consequential</t>
+          <t>enhance</t>
         </is>
       </c>
       <c r="IN1" s="1" t="inlineStr">
         <is>
-          <t>contributions</t>
+          <t>environmental</t>
         </is>
       </c>
       <c r="IO1" s="1" t="inlineStr">
         <is>
-          <t>cover</t>
+          <t>environments</t>
         </is>
       </c>
       <c r="IP1" s="1" t="inlineStr">
         <is>
-          <t>creative</t>
+          <t>evaporates</t>
         </is>
       </c>
       <c r="IQ1" s="1" t="inlineStr">
         <is>
-          <t>creativity</t>
+          <t>evident</t>
         </is>
       </c>
       <c r="IR1" s="1" t="inlineStr">
         <is>
-          <t>development</t>
+          <t>exceptional</t>
         </is>
       </c>
       <c r="IS1" s="1" t="inlineStr">
         <is>
-          <t>diversity</t>
+          <t>exceptionally</t>
         </is>
       </c>
       <c r="IT1" s="1" t="inlineStr">
         <is>
-          <t>documented</t>
+          <t>field</t>
         </is>
       </c>
       <c r="IU1" s="1" t="inlineStr">
         <is>
-          <t>dosage</t>
+          <t>findings</t>
         </is>
       </c>
       <c r="IV1" s="1" t="inlineStr">
         <is>
-          <t>educational</t>
+          <t>full</t>
         </is>
       </c>
       <c r="IW1" s="1" t="inlineStr">
         <is>
-          <t>educational/occupational</t>
+          <t>general</t>
         </is>
       </c>
       <c r="IX1" s="1" t="inlineStr">
         <is>
-          <t>effect</t>
+          <t>generalizations</t>
         </is>
       </c>
       <c r="IY1" s="1" t="inlineStr">
         <is>
-          <t>eight</t>
+          <t>held</t>
         </is>
       </c>
       <c r="IZ1" s="1" t="inlineStr">
         <is>
-          <t>emerged</t>
+          <t>identifying</t>
         </is>
       </c>
       <c r="JA1" s="1" t="inlineStr">
         <is>
-          <t>empirically</t>
+          <t>impactful</t>
         </is>
       </c>
       <c r="JB1" s="1" t="inlineStr">
         <is>
-          <t>enhance</t>
+          <t>individual</t>
         </is>
       </c>
       <c r="JC1" s="1" t="inlineStr">
         <is>
-          <t>environmental</t>
+          <t>interests</t>
         </is>
       </c>
       <c r="JD1" s="1" t="inlineStr">
         <is>
-          <t>environments</t>
+          <t>interpretive</t>
         </is>
       </c>
       <c r="JE1" s="1" t="inlineStr">
         <is>
-          <t>evaporates</t>
+          <t>interventions</t>
         </is>
       </c>
       <c r="JF1" s="1" t="inlineStr">
         <is>
-          <t>evident</t>
+          <t>leading</t>
         </is>
       </c>
       <c r="JG1" s="1" t="inlineStr">
         <is>
-          <t>exceptional</t>
+          <t>learned</t>
         </is>
       </c>
       <c r="JH1" s="1" t="inlineStr">
         <is>
-          <t>exceptionally</t>
+          <t>level</t>
         </is>
       </c>
       <c r="JI1" s="1" t="inlineStr">
         <is>
-          <t>field</t>
+          <t>life</t>
         </is>
       </c>
       <c r="JJ1" s="1" t="inlineStr">
         <is>
-          <t>findings</t>
+          <t>longitudinal</t>
         </is>
       </c>
       <c r="JK1" s="1" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>made</t>
         </is>
       </c>
       <c r="JL1" s="1" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>making</t>
         </is>
       </c>
       <c r="JM1" s="1" t="inlineStr">
         <is>
-          <t>generalizations</t>
+          <t>mathematical</t>
         </is>
       </c>
       <c r="JN1" s="1" t="inlineStr">
         <is>
-          <t>have</t>
+          <t>meaningful</t>
         </is>
       </c>
       <c r="JO1" s="1" t="inlineStr">
         <is>
-          <t>held</t>
+          <t>meaningfulness</t>
         </is>
       </c>
       <c r="JP1" s="1" t="inlineStr">
         <is>
-          <t>identifying</t>
+          <t>methods</t>
         </is>
       </c>
       <c r="JQ1" s="1" t="inlineStr">
         <is>
-          <t>impactful</t>
+          <t>mixed</t>
         </is>
       </c>
       <c r="JR1" s="1" t="inlineStr">
         <is>
-          <t>individual</t>
+          <t>modeling</t>
         </is>
       </c>
       <c r="JS1" s="1" t="inlineStr">
         <is>
-          <t>interests</t>
+          <t>multipotentiality</t>
         </is>
       </c>
       <c r="JT1" s="1" t="inlineStr">
         <is>
-          <t>interpretive</t>
+          <t>needs</t>
         </is>
       </c>
       <c r="JU1" s="1" t="inlineStr">
         <is>
-          <t>interventions</t>
+          <t>occupational</t>
         </is>
       </c>
       <c r="JV1" s="1" t="inlineStr">
         <is>
-          <t>leading</t>
+          <t>one</t>
         </is>
       </c>
       <c r="JW1" s="1" t="inlineStr">
         <is>
-          <t>learned</t>
+          <t>outcomes</t>
         </is>
       </c>
       <c r="JX1" s="1" t="inlineStr">
         <is>
-          <t>level</t>
+          <t>overall</t>
         </is>
       </c>
       <c r="JY1" s="1" t="inlineStr">
         <is>
-          <t>life</t>
+          <t>past</t>
         </is>
       </c>
       <c r="JZ1" s="1" t="inlineStr">
         <is>
-          <t>longitudinal</t>
+          <t>pattern</t>
         </is>
       </c>
       <c r="KA1" s="1" t="inlineStr">
         <is>
-          <t>made</t>
+          <t>populations</t>
         </is>
       </c>
       <c r="KB1" s="1" t="inlineStr">
         <is>
-          <t>making</t>
+          <t>precocious</t>
         </is>
       </c>
       <c r="KC1" s="1" t="inlineStr">
         <is>
-          <t>mathematical</t>
+          <t>precocity</t>
         </is>
       </c>
       <c r="KD1" s="1" t="inlineStr">
         <is>
-          <t>meaningful</t>
+          <t>predicting</t>
         </is>
       </c>
       <c r="KE1" s="1" t="inlineStr">
         <is>
-          <t>meaningfulness</t>
+          <t>probability</t>
         </is>
       </c>
       <c r="KF1" s="1" t="inlineStr">
         <is>
-          <t>methods</t>
+          <t>professional</t>
         </is>
       </c>
       <c r="KG1" s="1" t="inlineStr">
         <is>
-          <t>mixed</t>
+          <t>psychological</t>
         </is>
       </c>
       <c r="KH1" s="1" t="inlineStr">
         <is>
-          <t>modeling</t>
+          <t>psychometrics</t>
         </is>
       </c>
       <c r="KI1" s="1" t="inlineStr">
         <is>
-          <t>multipotentiality</t>
+          <t>quantitative</t>
         </is>
       </c>
       <c r="KJ1" s="1" t="inlineStr">
         <is>
-          <t>needs</t>
+          <t>range</t>
         </is>
       </c>
       <c r="KK1" s="1" t="inlineStr">
         <is>
-          <t>occupational</t>
+          <t>replicated</t>
         </is>
       </c>
       <c r="KL1" s="1" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>required</t>
         </is>
       </c>
       <c r="KM1" s="1" t="inlineStr">
         <is>
-          <t>outcomes</t>
+          <t>seeing</t>
         </is>
       </c>
       <c r="KN1" s="1" t="inlineStr">
         <is>
-          <t>over</t>
+          <t>since</t>
         </is>
       </c>
       <c r="KO1" s="1" t="inlineStr">
         <is>
-          <t>overall</t>
+          <t>span</t>
         </is>
       </c>
       <c r="KP1" s="1" t="inlineStr">
         <is>
-          <t>past</t>
+          <t>spatial</t>
         </is>
       </c>
       <c r="KQ1" s="1" t="inlineStr">
         <is>
-          <t>pattern</t>
+          <t>specific</t>
         </is>
       </c>
       <c r="KR1" s="1" t="inlineStr">
         <is>
-          <t>populations</t>
+          <t>structure</t>
         </is>
       </c>
       <c r="KS1" s="1" t="inlineStr">
         <is>
-          <t>precocious</t>
+          <t>subsequent</t>
         </is>
       </c>
       <c r="KT1" s="1" t="inlineStr">
         <is>
-          <t>precocity</t>
+          <t>sufficient</t>
         </is>
       </c>
       <c r="KU1" s="1" t="inlineStr">
         <is>
-          <t>predicting</t>
+          <t>terman</t>
         </is>
       </c>
       <c r="KV1" s="1" t="inlineStr">
         <is>
-          <t>probability</t>
+          <t>third</t>
         </is>
       </c>
       <c r="KW1" s="1" t="inlineStr">
         <is>
-          <t>professional</t>
+          <t>three</t>
         </is>
       </c>
       <c r="KX1" s="1" t="inlineStr">
         <is>
-          <t>psychological</t>
+          <t>threshold</t>
         </is>
       </c>
       <c r="KY1" s="1" t="inlineStr">
         <is>
-          <t>psychometrics</t>
+          <t>top</t>
         </is>
       </c>
       <c r="KZ1" s="1" t="inlineStr">
         <is>
-          <t>quantitative</t>
+          <t>uncovered</t>
         </is>
       </c>
       <c r="LA1" s="1" t="inlineStr">
         <is>
-          <t>range</t>
+          <t>use</t>
         </is>
       </c>
       <c r="LB1" s="1" t="inlineStr">
         <is>
-          <t>replicated</t>
+          <t>value</t>
         </is>
       </c>
       <c r="LC1" s="1" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>verbal</t>
         </is>
       </c>
       <c r="LD1" s="1" t="inlineStr">
         <is>
-          <t>seeing</t>
+          <t>within</t>
         </is>
       </c>
       <c r="LE1" s="1" t="inlineStr">
         <is>
-          <t>since</t>
+          <t>youth</t>
         </is>
       </c>
       <c r="LF1" s="1" t="inlineStr">
         <is>
-          <t>span</t>
+          <t>'s</t>
         </is>
       </c>
       <c r="LG1" s="1" t="inlineStr">
         <is>
-          <t>spatial</t>
+          <t>100</t>
         </is>
       </c>
       <c r="LH1" s="1" t="inlineStr">
         <is>
-          <t>specific</t>
+          <t>20th</t>
         </is>
       </c>
       <c r="LI1" s="1" t="inlineStr">
         <is>
-          <t>structure</t>
+          <t>academia</t>
         </is>
       </c>
       <c r="LJ1" s="1" t="inlineStr">
         <is>
-          <t>subsequent</t>
+          <t>appeared</t>
         </is>
       </c>
       <c r="LK1" s="1" t="inlineStr">
         <is>
-          <t>sufficient</t>
+          <t>assessing</t>
         </is>
       </c>
       <c r="LL1" s="1" t="inlineStr">
         <is>
-          <t>terman</t>
+          <t>bibliometric</t>
         </is>
       </c>
       <c r="LM1" s="1" t="inlineStr">
         <is>
-          <t>there</t>
+          <t>business</t>
         </is>
       </c>
       <c r="LN1" s="1" t="inlineStr">
         <is>
-          <t>these</t>
+          <t>century</t>
         </is>
       </c>
       <c r="LO1" s="1" t="inlineStr">
         <is>
-          <t>third</t>
+          <t>citation</t>
         </is>
       </c>
       <c r="LP1" s="1" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>citations</t>
         </is>
       </c>
       <c r="LQ1" s="1" t="inlineStr">
         <is>
-          <t>threshold</t>
+          <t>cited</t>
         </is>
       </c>
       <c r="LR1" s="1" t="inlineStr">
         <is>
-          <t>top</t>
+          <t>cognitive</t>
         </is>
       </c>
       <c r="LS1" s="1" t="inlineStr">
         <is>
-          <t>uncovered</t>
+          <t>differing</t>
         </is>
       </c>
       <c r="LT1" s="1" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>examine</t>
         </is>
       </c>
       <c r="LU1" s="1" t="inlineStr">
         <is>
-          <t>value</t>
+          <t>extends</t>
         </is>
       </c>
       <c r="LV1" s="1" t="inlineStr">
         <is>
-          <t>verbal</t>
+          <t>fields</t>
         </is>
       </c>
       <c r="LW1" s="1" t="inlineStr">
         <is>
-          <t>we</t>
+          <t>gathered</t>
         </is>
       </c>
       <c r="LX1" s="1" t="inlineStr">
         <is>
-          <t>what</t>
+          <t>geniusand</t>
         </is>
       </c>
       <c r="LY1" s="1" t="inlineStr">
         <is>
-          <t>while</t>
+          <t>geniushas</t>
         </is>
       </c>
       <c r="LZ1" s="1" t="inlineStr">
         <is>
-          <t>within</t>
+          <t>geniusstands</t>
         </is>
       </c>
       <c r="MA1" s="1" t="inlineStr">
         <is>
-          <t>youth</t>
+          <t>growth</t>
         </is>
       </c>
       <c r="MB1" s="1" t="inlineStr">
         <is>
-          <t>'s</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="MC1" s="1" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>journals</t>
         </is>
       </c>
       <c r="MD1" s="1" t="inlineStr">
         <is>
-          <t>20th</t>
+          <t>landmark</t>
         </is>
       </c>
       <c r="ME1" s="1" t="inlineStr">
         <is>
-          <t>academia</t>
+          <t>lewis</t>
         </is>
       </c>
       <c r="MF1" s="1" t="inlineStr">
         <is>
-          <t>appeared</t>
+          <t>m.</t>
         </is>
       </c>
       <c r="MG1" s="1" t="inlineStr">
         <is>
-          <t>assessing</t>
+          <t>mapped</t>
         </is>
       </c>
       <c r="MH1" s="1" t="inlineStr">
         <is>
-          <t>bibliometric</t>
+          <t>medicine</t>
         </is>
       </c>
       <c r="MI1" s="1" t="inlineStr">
         <is>
-          <t>business</t>
+          <t>nearly</t>
         </is>
       </c>
       <c r="MJ1" s="1" t="inlineStr">
         <is>
-          <t>century</t>
+          <t>psychology</t>
         </is>
       </c>
       <c r="MK1" s="1" t="inlineStr">
         <is>
-          <t>citation</t>
+          <t>reach</t>
         </is>
       </c>
       <c r="ML1" s="1" t="inlineStr">
         <is>
-          <t>citations</t>
+          <t>scholarly</t>
         </is>
       </c>
       <c r="MM1" s="1" t="inlineStr">
         <is>
-          <t>cited</t>
+          <t>scholars</t>
         </is>
       </c>
       <c r="MN1" s="1" t="inlineStr">
         <is>
-          <t>cognitive</t>
+          <t>sciences</t>
         </is>
       </c>
       <c r="MO1" s="1" t="inlineStr">
         <is>
-          <t>differing</t>
+          <t>sparked</t>
         </is>
       </c>
       <c r="MP1" s="1" t="inlineStr">
         <is>
-          <t>examine</t>
+          <t>terman'sgenetic</t>
         </is>
       </c>
       <c r="MQ1" s="1" t="inlineStr">
         <is>
-          <t>extends</t>
+          <t>volumes</t>
         </is>
       </c>
       <c r="MR1" s="1" t="inlineStr">
         <is>
-          <t>fields</t>
+          <t>work</t>
         </is>
       </c>
       <c r="MS1" s="1" t="inlineStr">
-        <is>
-          <t>gathered</t>
-        </is>
-      </c>
-      <c r="MT1" s="1" t="inlineStr">
-        <is>
-          <t>geniusand</t>
-        </is>
-      </c>
-      <c r="MU1" s="1" t="inlineStr">
-        <is>
-          <t>geniushas</t>
-        </is>
-      </c>
-      <c r="MV1" s="1" t="inlineStr">
-        <is>
-          <t>geniusstands</t>
-        </is>
-      </c>
-      <c r="MW1" s="1" t="inlineStr">
-        <is>
-          <t>growth</t>
-        </is>
-      </c>
-      <c r="MX1" s="1" t="inlineStr">
-        <is>
-          <t>interest</t>
-        </is>
-      </c>
-      <c r="MY1" s="1" t="inlineStr">
-        <is>
-          <t>journals</t>
-        </is>
-      </c>
-      <c r="MZ1" s="1" t="inlineStr">
-        <is>
-          <t>landmark</t>
-        </is>
-      </c>
-      <c r="NA1" s="1" t="inlineStr">
-        <is>
-          <t>lewis</t>
-        </is>
-      </c>
-      <c r="NB1" s="1" t="inlineStr">
-        <is>
-          <t>m.</t>
-        </is>
-      </c>
-      <c r="NC1" s="1" t="inlineStr">
-        <is>
-          <t>mapped</t>
-        </is>
-      </c>
-      <c r="ND1" s="1" t="inlineStr">
-        <is>
-          <t>medicine</t>
-        </is>
-      </c>
-      <c r="NE1" s="1" t="inlineStr">
-        <is>
-          <t>nearly</t>
-        </is>
-      </c>
-      <c r="NF1" s="1" t="inlineStr">
-        <is>
-          <t>psychology</t>
-        </is>
-      </c>
-      <c r="NG1" s="1" t="inlineStr">
-        <is>
-          <t>reach</t>
-        </is>
-      </c>
-      <c r="NH1" s="1" t="inlineStr">
-        <is>
-          <t>scholarly</t>
-        </is>
-      </c>
-      <c r="NI1" s="1" t="inlineStr">
-        <is>
-          <t>scholars</t>
-        </is>
-      </c>
-      <c r="NJ1" s="1" t="inlineStr">
-        <is>
-          <t>sciences</t>
-        </is>
-      </c>
-      <c r="NK1" s="1" t="inlineStr">
-        <is>
-          <t>sparked</t>
-        </is>
-      </c>
-      <c r="NL1" s="1" t="inlineStr">
-        <is>
-          <t>terman'sgenetic</t>
-        </is>
-      </c>
-      <c r="NM1" s="1" t="inlineStr">
-        <is>
-          <t>volumes</t>
-        </is>
-      </c>
-      <c r="NN1" s="1" t="inlineStr">
-        <is>
-          <t>work</t>
-        </is>
-      </c>
-      <c r="NO1" s="1" t="inlineStr">
         <is>
           <t>works</t>
         </is>
@@ -2337,94 +2227,94 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AC2" t="n">
         <v>0.02</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="X2" t="n">
+      <c r="AD2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AE2" t="n">
         <v>0.04</v>
       </c>
-      <c r="Y2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="AF2" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="AH2" t="n">
         <v>0.02</v>
@@ -2433,19 +2323,19 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AJ2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AK2" t="n">
         <v>0.04</v>
       </c>
-      <c r="AK2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="AL2" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="AO2" t="n">
         <v>0.07000000000000001</v>
@@ -2460,7 +2350,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AT2" t="n">
         <v>0.07000000000000001</v>
@@ -2469,10 +2359,10 @@
         <v>0.04</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="AX2" t="n">
         <v>0.07000000000000001</v>
@@ -2481,13 +2371,13 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.04</v>
+        <v>0.29</v>
       </c>
       <c r="BC2" t="n">
         <v>0.07000000000000001</v>
@@ -2502,49 +2392,49 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="BJ2" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="BO2" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
         <v>0</v>
@@ -3396,72 +3286,6 @@
         <v>0</v>
       </c>
       <c r="MS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ND2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NO2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3563,10 +3387,10 @@
         <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
@@ -3578,37 +3402,37 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
         <v>0.04</v>
       </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0</v>
-      </c>
       <c r="AV3" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AW3" t="n">
         <v>0</v>
@@ -3620,232 +3444,232 @@
         <v>0</v>
       </c>
       <c r="AZ3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
         <v>0.04</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BV3" t="n">
         <v>0.04</v>
       </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR3" t="n">
+      <c r="BW3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CH3" t="n">
         <v>0.04</v>
       </c>
-      <c r="BS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CC3" t="n">
+      <c r="CI3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="CY3" t="n">
         <v>0.04</v>
       </c>
-      <c r="CD3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CO3" t="n">
+      <c r="CZ3" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="DP3" t="n">
         <v>0.04</v>
       </c>
-      <c r="CP3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="CV3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="DA3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="DB3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="DC3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="DD3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="DE3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="DF3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="DG3" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="DH3" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="DI3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="DJ3" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="DK3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="DL3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="DM3" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="DN3" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="DO3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="DP3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="DQ3" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.21</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="DX3" t="n">
         <v>0.07000000000000001</v>
@@ -3866,76 +3690,76 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.21</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="EK3" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="EM3" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
         <v>0</v>
@@ -4535,72 +4359,6 @@
         <v>0</v>
       </c>
       <c r="MS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="MT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="MU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="MV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="MW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="MX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="MY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="MZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ND3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="NO3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4642,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4657,427 +4415,427 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP4" t="n">
         <v>0.05</v>
       </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM4" t="n">
+      <c r="DQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="EH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="EO4" t="n">
         <v>0.08</v>
       </c>
-      <c r="BN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA4" t="n">
+      <c r="EP4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="EQ4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="ER4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="ES4" t="n">
         <v>0.05</v>
       </c>
-      <c r="EB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="ES4" t="n">
-        <v>0</v>
-      </c>
       <c r="ET4" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="EU4" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="EV4" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="EW4" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="EX4" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="FA4" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.32</v>
+        <v>0.08</v>
       </c>
       <c r="FC4" t="n">
         <v>0.08</v>
@@ -5089,10 +4847,10 @@
         <v>0.08</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="FH4" t="n">
         <v>0.08</v>
@@ -5107,7 +4865,7 @@
         <v>0.08</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="FM4" t="n">
         <v>0.08</v>
@@ -5116,7 +4874,7 @@
         <v>0.08</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.32</v>
+        <v>0.08</v>
       </c>
       <c r="FP4" t="n">
         <v>0.08</v>
@@ -5134,7 +4892,7 @@
         <v>0.08</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="FV4" t="n">
         <v>0.08</v>
@@ -5143,7 +4901,7 @@
         <v>0.08</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="FY4" t="n">
         <v>0.08</v>
@@ -5155,19 +4913,19 @@
         <v>0.08</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="GD4" t="n">
         <v>0.08</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="GG4" t="n">
         <v>0.08</v>
@@ -5185,37 +4943,37 @@
         <v>0.08</v>
       </c>
       <c r="GL4" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="GM4" t="n">
         <v>0.08</v>
       </c>
       <c r="GN4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="GO4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="GP4" t="n">
         <v>0.08</v>
       </c>
-      <c r="GO4" t="n">
+      <c r="GQ4" t="n">
         <v>0.08</v>
-      </c>
-      <c r="GP4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="GQ4" t="n">
-        <v>0.05</v>
       </c>
       <c r="GR4" t="n">
         <v>0.08</v>
       </c>
       <c r="GS4" t="n">
-        <v>0.16</v>
+        <v>0.4</v>
       </c>
       <c r="GT4" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="GU4" t="n">
         <v>0.08</v>
       </c>
       <c r="GV4" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="GW4" t="n">
         <v>0.08</v>
@@ -5233,10 +4991,10 @@
         <v>0.08</v>
       </c>
       <c r="HB4" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="HC4" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="HD4" t="n">
         <v>0.08</v>
@@ -5245,52 +5003,52 @@
         <v>0.08</v>
       </c>
       <c r="HF4" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="HG4" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="HH4" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="HI4" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="HJ4" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="HK4" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="HL4" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="HM4" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="HN4" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="HO4" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="HP4" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="HQ4" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="HR4" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="HS4" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="HT4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="HU4" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="HV4" t="n">
         <v>0</v>
@@ -5674,72 +5432,6 @@
         <v>0</v>
       </c>
       <c r="MS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="ND4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NO4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5754,94 +5446,94 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
         <v>0.02</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
       <c r="AD5" t="n">
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AF5" t="n">
         <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AH5" t="n">
         <v>0.02</v>
@@ -5850,496 +5542,496 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
         <v>0.04</v>
       </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AM5" t="n">
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>0.02</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU5" t="n">
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="CZ5" t="n">
         <v>0.04</v>
       </c>
-      <c r="AV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB5" t="n">
+      <c r="DA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA5" t="n">
         <v>0.04</v>
       </c>
-      <c r="BC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="BU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI5" t="n">
+      <c r="EB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC5" t="n">
         <v>0.08</v>
       </c>
-      <c r="DJ5" t="n">
+      <c r="GD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF5" t="n">
         <v>0.04</v>
       </c>
-      <c r="DK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL5" t="n">
+      <c r="GG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO5" t="n">
         <v>0.04</v>
       </c>
-      <c r="EM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER5" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES5" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO5" t="n">
-        <v>0</v>
-      </c>
       <c r="GP5" t="n">
         <v>0</v>
       </c>
       <c r="GQ5" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="GR5" t="n">
         <v>0</v>
@@ -6348,97 +6040,97 @@
         <v>0</v>
       </c>
       <c r="GT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF5" t="n">
         <v>0.04</v>
       </c>
-      <c r="GU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC5" t="n">
+      <c r="HG5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="HH5" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="HI5" t="n">
         <v>0.04</v>
       </c>
-      <c r="HD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI5" t="n">
-        <v>0</v>
-      </c>
       <c r="HJ5" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="HK5" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="HL5" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="HM5" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="HN5" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="HO5" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="HP5" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="HQ5" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="HR5" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="HS5" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="HT5" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="HU5" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="HV5" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="HW5" t="n">
-        <v>0.44</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="HX5" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="HY5" t="n">
         <v>0.07000000000000001</v>
@@ -6447,7 +6139,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="IA5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="IB5" t="n">
         <v>0.07000000000000001</v>
@@ -6465,10 +6157,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="IG5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="IH5" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="II5" t="n">
         <v>0.07000000000000001</v>
@@ -6492,7 +6184,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="IP5" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="IQ5" t="n">
         <v>0.07000000000000001</v>
@@ -6504,262 +6196,262 @@
         <v>0.15</v>
       </c>
       <c r="IT5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="IU5" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="IV5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="IW5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="IX5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="IY5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="IZ5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JA5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JB5" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="JC5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JD5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JE5" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="JF5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JG5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JH5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JI5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JJ5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="JK5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JL5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JM5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JN5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JO5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JP5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JQ5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JR5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JS5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JT5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JU5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JV5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="JW5" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="JX5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JY5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JZ5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KA5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KB5" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="KC5" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="KD5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KE5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KF5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KG5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="KH5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KI5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KJ5" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="KK5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KL5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KM5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KN5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KO5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KP5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KQ5" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="KR5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KS5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KT5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KU5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="KV5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KW5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KX5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KY5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="KZ5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="LA5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="LB5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="LC5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="LD5" t="n">
         <v>0.08</v>
       </c>
-      <c r="IW5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="IX5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="IY5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="IZ5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JA5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JB5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JC5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JD5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JE5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JF5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JG5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JH5" t="n">
+      <c r="LE5" t="n">
         <v>0.15</v>
       </c>
-      <c r="JI5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="JJ5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JK5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JL5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="JM5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JN5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JO5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JP5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JQ5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JR5" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="JS5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JT5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JU5" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="JV5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JW5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JX5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JY5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JZ5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="KA5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KB5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KC5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KD5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KE5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KF5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KG5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KH5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KI5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KJ5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KK5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KL5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="KM5" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="KN5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KO5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KP5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KQ5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KR5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KS5" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="KT5" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="KU5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KV5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KW5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KX5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="KY5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KZ5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="LA5" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="LB5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="LC5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="LD5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="LE5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="LF5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="LG5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="LH5" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="LI5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="LJ5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="LK5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="LL5" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="LM5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="LN5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="LO5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="LP5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="LQ5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="LR5" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="LS5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="LT5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="LU5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="LV5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="LW5" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="LX5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="LY5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="LZ5" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="MA5" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="MB5" t="n">
         <v>0</v>
@@ -6813,72 +6505,6 @@
         <v>0</v>
       </c>
       <c r="MS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="MT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="MU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="MV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="MW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="MX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="MY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="MZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="NA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="NB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="NC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="ND5" t="n">
-        <v>0</v>
-      </c>
-      <c r="NE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="NF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="NG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="NH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="NI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="NJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="NK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="NL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="NM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="NN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="NO5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6893,83 +6519,83 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
         <v>0.03</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
       <c r="AD6" t="n">
         <v>0</v>
       </c>
@@ -6980,107 +6606,107 @@
         <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN6" t="n">
         <v>0.03</v>
       </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>0.17</v>
-      </c>
       <c r="BO6" t="n">
         <v>0</v>
       </c>
@@ -7088,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="BR6" t="n">
         <v>0</v>
@@ -7097,13 +6723,13 @@
         <v>0</v>
       </c>
       <c r="BT6" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="BW6" t="n">
         <v>0</v>
@@ -7124,23 +6750,23 @@
         <v>0</v>
       </c>
       <c r="CC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH6" t="n">
         <v>0.06</v>
       </c>
-      <c r="CD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH6" t="n">
-        <v>0</v>
-      </c>
       <c r="CI6" t="n">
         <v>0</v>
       </c>
@@ -7160,34 +6786,34 @@
         <v>0</v>
       </c>
       <c r="CO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW6" t="n">
         <v>0.06</v>
       </c>
-      <c r="CP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW6" t="n">
-        <v>0</v>
-      </c>
       <c r="CX6" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="CY6" t="n">
         <v>0</v>
@@ -7208,700 +6834,700 @@
         <v>0</v>
       </c>
       <c r="DE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES6" t="n">
         <v>0.06</v>
       </c>
-      <c r="DF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG6" t="n">
+      <c r="ET6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX6" t="n">
         <v>0.06</v>
       </c>
-      <c r="DH6" t="n">
+      <c r="FY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI6" t="n">
         <v>0.06</v>
       </c>
-      <c r="DI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER6" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ES6" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG6" t="n">
+      <c r="HJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS6" t="n">
         <v>0.06</v>
       </c>
-      <c r="FH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL6" t="n">
+      <c r="HT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG6" t="n">
         <v>0.06</v>
       </c>
-      <c r="GM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX6" t="n">
+      <c r="IH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="II6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT6" t="n">
         <v>0.06</v>
       </c>
-      <c r="HY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID6" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH6" t="n">
+      <c r="IU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW6" t="n">
         <v>0.06</v>
       </c>
-      <c r="II6" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="IR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="IU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="IV6" t="n">
+      <c r="IX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ6" t="n">
         <v>0.06</v>
       </c>
-      <c r="IW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="IX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="IY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI6" t="n">
+      <c r="JK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV6" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="JW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG6" t="n">
         <v>0.06</v>
       </c>
-      <c r="JJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL6" t="n">
+      <c r="KH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU6" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="KV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY6" t="n">
         <v>0.06</v>
       </c>
-      <c r="JM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JZ6" t="n">
+      <c r="KZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD6" t="n">
         <v>0.06</v>
       </c>
-      <c r="KA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KL6" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="KM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KX6" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="KY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="LA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="LB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="LC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="LD6" t="n">
-        <v>0</v>
-      </c>
       <c r="LE6" t="n">
         <v>0</v>
       </c>
       <c r="LF6" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="LG6" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="LH6" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="LI6" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="LJ6" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="LK6" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="LL6" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="LM6" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="LN6" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="LO6" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="LP6" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="LQ6" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="LR6" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="LS6" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="LT6" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="LU6" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="LV6" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="LW6" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="LX6" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="LY6" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="LZ6" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="MA6" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="MB6" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="MC6" t="n">
         <v>0.11</v>
@@ -7910,7 +7536,7 @@
         <v>0.11</v>
       </c>
       <c r="ME6" t="n">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="MF6" t="n">
         <v>0.11</v>
@@ -7919,7 +7545,7 @@
         <v>0.11</v>
       </c>
       <c r="MH6" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="MI6" t="n">
         <v>0.11</v>
@@ -7931,19 +7557,19 @@
         <v>0.11</v>
       </c>
       <c r="ML6" t="n">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="MM6" t="n">
         <v>0.11</v>
       </c>
       <c r="MN6" t="n">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="MO6" t="n">
         <v>0.11</v>
       </c>
       <c r="MP6" t="n">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="MQ6" t="n">
         <v>0.11</v>
@@ -7952,72 +7578,6 @@
         <v>0.11</v>
       </c>
       <c r="MS6" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="MT6" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="MU6" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="MV6" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="MW6" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="MX6" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="MY6" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="MZ6" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="NA6" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="NB6" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="NC6" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="ND6" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="NE6" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="NF6" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="NG6" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="NH6" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="NI6" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="NJ6" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="NK6" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="NL6" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="NM6" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="NN6" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="NO6" t="n">
         <v>0.11</v>
       </c>
     </row>
